--- a/res/Map.xlsx
+++ b/res/Map.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nedelcho Penev\Desktop\Java_Advanced_Project_Band-The_Wandering_Knight\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15315" windowHeight="9540"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="15312" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,3662 +68,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="721">
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill patternType="darkVertical">
           <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3794,63 +148,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightGray">
           <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3926,63 +225,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightGray">
           <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4058,63 +302,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightGray">
           <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4190,68 +379,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightGray">
           <fgColor rgb="FF54E133"/>
         </patternFill>
@@ -4275,538 +402,6 @@
       <fill>
         <patternFill patternType="lightGray">
           <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4904,624 +499,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkTrellis">
-          <fgColor theme="2" tint="-0.89996032593768116"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="gray0625">
           <fgColor rgb="FFFF0000"/>
           <bgColor theme="4"/>
@@ -5578,6 +555,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5625,7 +605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5660,7 +640,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5872,12 +852,13 @@
   <dimension ref="A1:BN62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BH62" sqref="A3:BH62"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
@@ -5886,7 +867,7 @@
     <col min="67" max="67" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>60</v>
       </c>
@@ -5894,7 +875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -5902,7 +883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -6087,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24</v>
       </c>
@@ -6272,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -6457,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -6642,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -6827,7 +1808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
@@ -7012,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24</v>
       </c>
@@ -7197,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
@@ -7382,7 +2363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
@@ -7567,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24</v>
       </c>
@@ -7752,7 +2733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24</v>
       </c>
@@ -7937,7 +2918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -8122,7 +3103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24</v>
       </c>
@@ -8307,7 +3288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24</v>
       </c>
@@ -8492,7 +3473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -8677,7 +3658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -8862,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24</v>
       </c>
@@ -9047,7 +4028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -9232,7 +4213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -9417,7 +4398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -9602,7 +4583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -9787,7 +4768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -9972,7 +4953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10157,7 +5138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10342,7 +5323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -10527,7 +5508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -10712,7 +5693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -10894,7 +5875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -11076,7 +6057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24</v>
       </c>
@@ -11258,7 +6239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -11440,7 +6421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24</v>
       </c>
@@ -11622,7 +6603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>24</v>
       </c>
@@ -11804,7 +6785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>24</v>
       </c>
@@ -11986,7 +6967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>24</v>
       </c>
@@ -12168,7 +7149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>24</v>
       </c>
@@ -12350,7 +7331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
@@ -12532,7 +7513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>24</v>
       </c>
@@ -12714,7 +7695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>24</v>
       </c>
@@ -12896,7 +7877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24</v>
       </c>
@@ -13078,7 +8059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24</v>
       </c>
@@ -13260,7 +8241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>24</v>
       </c>
@@ -13442,7 +8423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24</v>
       </c>
@@ -13624,7 +8605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>24</v>
       </c>
@@ -13806,7 +8787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>24</v>
       </c>
@@ -13988,7 +8969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>24</v>
       </c>
@@ -14170,7 +9151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24</v>
       </c>
@@ -14352,7 +9333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24</v>
       </c>
@@ -14534,7 +9515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24</v>
       </c>
@@ -14716,7 +9697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>24</v>
       </c>
@@ -14898,7 +9879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>24</v>
       </c>
@@ -15080,7 +10061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>24</v>
       </c>
@@ -15262,7 +10243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24</v>
       </c>
@@ -15444,7 +10425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24</v>
       </c>
@@ -15626,7 +10607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>24</v>
       </c>
@@ -15808,7 +10789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>24</v>
       </c>
@@ -15990,7 +10971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>24</v>
       </c>
@@ -16172,7 +11153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>24</v>
       </c>
@@ -16354,7 +11335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24</v>
       </c>
@@ -16536,7 +11517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24</v>
       </c>
@@ -16718,7 +11699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>22</v>
       </c>
@@ -16902,324 +11883,324 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD2 A63:XFD1048576 A3:A63 B3:XFD62">
-    <cfRule type="cellIs" dxfId="720" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN3:BN29 B3:BH62">
-    <cfRule type="cellIs" dxfId="718" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="717" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A63">
-    <cfRule type="cellIs" dxfId="712" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="711" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="710" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="709" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="708" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="699" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="689" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="687" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="685" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="683" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="681" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="679" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="cellIs" dxfId="669" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="667" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="665" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3">
-    <cfRule type="cellIs" dxfId="663" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="cellIs" dxfId="661" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="cellIs" dxfId="659" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3">
-    <cfRule type="cellIs" dxfId="649" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3">
-    <cfRule type="cellIs" dxfId="647" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3">
-    <cfRule type="cellIs" dxfId="645" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3">
-    <cfRule type="cellIs" dxfId="643" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3">
-    <cfRule type="cellIs" dxfId="641" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3">
-    <cfRule type="cellIs" dxfId="639" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3">
-    <cfRule type="cellIs" dxfId="629" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3">
-    <cfRule type="cellIs" dxfId="627" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3">
-    <cfRule type="cellIs" dxfId="625" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3">
-    <cfRule type="cellIs" dxfId="623" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3">
-    <cfRule type="cellIs" dxfId="621" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG3">
-    <cfRule type="cellIs" dxfId="619" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="593" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="583" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="573" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="563" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="cellIs" dxfId="553" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62">
-    <cfRule type="cellIs" dxfId="551" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62">
-    <cfRule type="cellIs" dxfId="549" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q62">
-    <cfRule type="cellIs" dxfId="547" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S62">
-    <cfRule type="cellIs" dxfId="545" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="cellIs" dxfId="535" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="cellIs" dxfId="533" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y62">
-    <cfRule type="cellIs" dxfId="531" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA62">
-    <cfRule type="cellIs" dxfId="529" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC62">
-    <cfRule type="cellIs" dxfId="527" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE62">
-    <cfRule type="cellIs" dxfId="517" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG62">
-    <cfRule type="cellIs" dxfId="515" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI62">
-    <cfRule type="cellIs" dxfId="513" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK62">
-    <cfRule type="cellIs" dxfId="511" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM62">
-    <cfRule type="cellIs" dxfId="509" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO62">
-    <cfRule type="cellIs" dxfId="499" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ62">
-    <cfRule type="cellIs" dxfId="497" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS62">
-    <cfRule type="cellIs" dxfId="495" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU62">
-    <cfRule type="cellIs" dxfId="493" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW62">
-    <cfRule type="cellIs" dxfId="491" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY62">
-    <cfRule type="cellIs" dxfId="481" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA62">
-    <cfRule type="cellIs" dxfId="479" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC62">
-    <cfRule type="cellIs" dxfId="477" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE62">
-    <cfRule type="cellIs" dxfId="475" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG62">
-    <cfRule type="cellIs" dxfId="473" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17254,7 +12235,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17266,7 +12247,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/res/Map.xlsx
+++ b/res/Map.xlsx
@@ -17,7 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +33,26 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,19 +64,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="179">
+  <dxfs count="369">
     <dxf>
       <fill>
         <patternFill patternType="darkVertical">
@@ -351,13 +367,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -413,13 +422,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -475,13 +477,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -537,13 +532,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -599,13 +587,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -661,13 +642,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -723,13 +697,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -785,13 +752,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -847,13 +807,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FF54E133"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -874,6 +827,1567 @@
       <fill>
         <patternFill patternType="darkVertical">
           <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray">
+          <fgColor rgb="FF54E133"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray">
+          <fgColor rgb="FF54E133"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray">
+          <fgColor rgb="FF54E133"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1712,10 +3226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN62"/>
+  <dimension ref="A1:BU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43:K43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="BU35" sqref="BU35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,13 +3237,18 @@
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="3" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>60</v>
       </c>
@@ -1737,7 +3256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -1745,7 +3264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1930,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24</v>
       </c>
@@ -2115,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -2300,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -2485,7 +4004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -2670,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
@@ -2855,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24</v>
       </c>
@@ -3040,7 +4559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
@@ -3225,7 +4744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
@@ -3410,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24</v>
       </c>
@@ -3595,7 +5114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24</v>
       </c>
@@ -3780,7 +5299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -3964,8 +5483,12 @@
       <c r="BN14">
         <v>11</v>
       </c>
+      <c r="BU14">
+        <f>13*32</f>
+        <v>416</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24</v>
       </c>
@@ -4149,8 +5672,12 @@
       <c r="BN15">
         <v>12</v>
       </c>
+      <c r="BU15">
+        <f>+BU14*2</f>
+        <v>832</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24</v>
       </c>
@@ -5095,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -6220,22 +7747,22 @@
         <v>30</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R27">
         <v>30</v>
@@ -6405,7 +7932,7 @@
         <v>30</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28">
         <v>30</v>
@@ -6555,7 +8082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -6595,7 +8122,7 @@
       <c r="M29">
         <v>30</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="2">
         <v>30</v>
       </c>
       <c r="O29">
@@ -6737,7 +8264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:66" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -7283,7 +8810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
@@ -7464,8 +8991,12 @@
       <c r="BH33">
         <v>25</v>
       </c>
+      <c r="BU33">
+        <f>36*32</f>
+        <v>1152</v>
+      </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
@@ -7646,8 +9177,12 @@
       <c r="BH34">
         <v>25</v>
       </c>
+      <c r="BU34">
+        <f>34*32</f>
+        <v>1088</v>
+      </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
@@ -7705,7 +9240,7 @@
       <c r="S35">
         <v>30</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="2">
         <v>30</v>
       </c>
       <c r="U35">
@@ -7829,7 +9364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24</v>
       </c>
@@ -8011,7 +9546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
@@ -8193,2003 +9728,2012 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AA38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AB38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AC38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AD38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AE38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AF38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AG38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AH38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AI38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AJ38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AK38">
         <v>30</v>
       </c>
       <c r="AL38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AM38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AN38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AR38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AS38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AU38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AV38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AW38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AX38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AY38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AZ38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BA38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BB38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BC38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BD38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BE38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BF38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BG38">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BH38">
         <v>25</v>
       </c>
+      <c r="BN38">
+        <v>18</v>
+      </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="U39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="V39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="W39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="X39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Y39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Z39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AA39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AB39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AD39">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AE39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN39">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AO39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U40">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="V40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V41">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH41">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>24</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R42">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="S42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG42">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AH42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR42">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AS42">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AT42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA42">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="BB42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH42">
         <v>25</v>
       </c>
+      <c r="BN42">
+        <v>41</v>
+      </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>24</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G43">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I43">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J43">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K43">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y43">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Z43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR43">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AS43">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AT43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH43">
         <v>25</v>
       </c>
+      <c r="BN43">
+        <v>42</v>
+      </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>24</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U44">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="V44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ44">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AK44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH44">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>24</v>
       </c>
       <c r="B45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE45">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AF45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH45">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>24</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W46">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="X46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH46">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>24</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P47">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Q47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX47">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AY47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24</v>
       </c>
       <c r="B48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG48">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AH48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX48">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AY48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH48">
         <v>25</v>
@@ -10200,178 +11744,178 @@
         <v>24</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O49">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL49">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AM49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY49">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AZ49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH49">
         <v>25</v>
@@ -10382,178 +11926,178 @@
         <v>24</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO50">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AP50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH50">
         <v>25</v>
@@ -10564,178 +12108,178 @@
         <v>24</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH51">
         <v>25</v>
@@ -10746,178 +12290,178 @@
         <v>24</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH52">
         <v>25</v>
@@ -10928,178 +12472,178 @@
         <v>24</v>
       </c>
       <c r="B53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL53">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AM53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH53">
         <v>25</v>
@@ -11110,178 +12654,178 @@
         <v>24</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W54">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="X54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH54">
         <v>25</v>
@@ -11292,178 +12836,178 @@
         <v>24</v>
       </c>
       <c r="B55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE55">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AF55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX55">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AY55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH55">
         <v>25</v>
@@ -11474,178 +13018,178 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH56">
         <v>25</v>
@@ -11656,178 +13200,178 @@
         <v>24</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U57">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="V57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ57">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="BA57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH57">
         <v>25</v>
@@ -11838,178 +13382,178 @@
         <v>24</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I58">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH58">
         <v>25</v>
@@ -12020,178 +13564,178 @@
         <v>24</v>
       </c>
       <c r="B59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K59">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH59">
         <v>25</v>
@@ -12202,178 +13746,178 @@
         <v>24</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH60">
         <v>25</v>
@@ -12384,178 +13928,178 @@
         <v>24</v>
       </c>
       <c r="B61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AI61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AP61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AS61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AT61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AV61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AW61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AY61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BC61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BF61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH61">
         <v>25</v>
@@ -12744,325 +14288,325 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2 A63:XFD1048576 A3:A63 B3:XFD62">
-    <cfRule type="cellIs" dxfId="178" priority="67" operator="equal">
+  <conditionalFormatting sqref="A1:XFD2 A63:XFD1048576 A3:A63 A38:XFD38 B3:XFD62">
+    <cfRule type="cellIs" dxfId="368" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="66" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN3:BN29 B3:BH62">
-    <cfRule type="cellIs" dxfId="176" priority="65" operator="equal">
+  <conditionalFormatting sqref="BN3:BN29 BN38 B3:BH62">
+    <cfRule type="cellIs" dxfId="366" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="175" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="64" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="60" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A63">
-    <cfRule type="cellIs" dxfId="171" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="170" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="169" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="168" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="167" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="166" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="165" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="164" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="163" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="162" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="161" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="160" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="cellIs" dxfId="159" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="158" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="157" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3">
-    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="cellIs" dxfId="155" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="cellIs" dxfId="154" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3">
-    <cfRule type="cellIs" dxfId="153" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3">
-    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3">
-    <cfRule type="cellIs" dxfId="151" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3">
-    <cfRule type="cellIs" dxfId="150" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3">
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3">
-    <cfRule type="cellIs" dxfId="148" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3">
-    <cfRule type="cellIs" dxfId="147" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3">
-    <cfRule type="cellIs" dxfId="146" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3">
-    <cfRule type="cellIs" dxfId="145" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3">
-    <cfRule type="cellIs" dxfId="144" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3">
-    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG3">
-    <cfRule type="cellIs" dxfId="142" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="141" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="140" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="139" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="138" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="cellIs" dxfId="137" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62">
-    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62">
-    <cfRule type="cellIs" dxfId="135" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q62">
-    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S62">
-    <cfRule type="cellIs" dxfId="133" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="cellIs" dxfId="131" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y62">
-    <cfRule type="cellIs" dxfId="130" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA62">
-    <cfRule type="cellIs" dxfId="129" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC62">
-    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE62">
-    <cfRule type="cellIs" dxfId="127" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG62">
-    <cfRule type="cellIs" dxfId="126" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI62">
-    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK62">
-    <cfRule type="cellIs" dxfId="124" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM62">
-    <cfRule type="cellIs" dxfId="123" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO62">
-    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ62">
-    <cfRule type="cellIs" dxfId="121" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS62">
-    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU62">
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW62">
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY62">
-    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA62">
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC62">
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE62">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG62">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
